--- a/plastics/baseline_model/conversion-tables/defra_recycling_valpak_conversion.xlsx
+++ b/plastics/baseline_model/conversion-tables/defra_recycling_valpak_conversion.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliverlysaght/Desktop/ce_observatory_data_scripts/plastics/baseline_model/conversion-tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE654A1B-E1C2-0943-AD86-CDEE3C9CDE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA727280-3952-D843-9EA4-1E3C047DB254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{A0BC333C-09FB-6C4E-9212-E1C7E07B9242}"/>
+    <workbookView xWindow="11280" yWindow="740" windowWidth="18960" windowHeight="18900" xr2:uid="{A0BC333C-09FB-6C4E-9212-E1C7E07B9242}"/>
   </bookViews>
   <sheets>
     <sheet name="conversion" sheetId="2" r:id="rId1"/>
     <sheet name="valpak_bom" sheetId="4" state="hidden" r:id="rId2"/>
     <sheet name="Sheet5" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,25 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="56">
-  <si>
-    <t>HDPE bottles</t>
-  </si>
-  <si>
-    <t>Mixed bottles</t>
-  </si>
-  <si>
-    <t>Other plastic packaging</t>
-  </si>
-  <si>
-    <t>PET bottles</t>
-  </si>
-  <si>
-    <t>Packaging film</t>
-  </si>
-  <si>
-    <t>Post–consumer pots, tubs and trays</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="58">
   <si>
     <t>Bottle</t>
   </si>
@@ -207,6 +190,30 @@
   <si>
     <t>ROW_CHECK</t>
   </si>
+  <si>
+    <t>HDPE bottles</t>
+  </si>
+  <si>
+    <t>Mixed bottles</t>
+  </si>
+  <si>
+    <t>PET bottles</t>
+  </si>
+  <si>
+    <t>Post–consumer pots, tubs and trays</t>
+  </si>
+  <si>
+    <t>Packaging film</t>
+  </si>
+  <si>
+    <t>Other plastic packaging</t>
+  </si>
+  <si>
+    <t>100% Packaging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other </t>
+  </si>
 </sst>
 </file>
 
@@ -242,15 +249,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -269,15 +282,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -305,7 +329,7 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="2021"/>
+        <filter val="2014"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -636,127 +660,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAD0895-2F52-4B45-A2F9-1E3D62B101AA}">
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AI37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AE1" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AF1" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AG1" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AH1" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>49</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2023</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
+      <c r="B2" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -863,8 +887,8 @@
       <c r="A3">
         <v>2023</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
+      <c r="B3" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -963,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3:AI25" si="0">SUM(C3:AH3)</f>
+        <f t="shared" ref="AI3:AI37" si="0">SUM(C3:AH3)</f>
         <v>1</v>
       </c>
     </row>
@@ -971,8 +995,8 @@
       <c r="A4">
         <v>2023</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
+      <c r="B4" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C4">
         <v>0.46684005206874163</v>
@@ -1079,8 +1103,8 @@
       <c r="A5">
         <v>2023</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
+      <c r="B5" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1187,8 +1211,8 @@
       <c r="A6">
         <v>2023</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
+      <c r="B6" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1295,8 +1319,8 @@
       <c r="A7">
         <v>2023</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
+      <c r="B7" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1403,8 +1427,8 @@
       <c r="A8">
         <v>2022</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
+      <c r="B8" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1511,8 +1535,8 @@
       <c r="A9">
         <v>2022</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
+      <c r="B9" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1619,8 +1643,8 @@
       <c r="A10">
         <v>2022</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>1</v>
+      <c r="B10" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C10">
         <v>0.46684005206874163</v>
@@ -1727,8 +1751,8 @@
       <c r="A11">
         <v>2022</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
+      <c r="B11" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1835,8 +1859,8 @@
       <c r="A12">
         <v>2022</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>4</v>
+      <c r="B12" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1943,8 +1967,8 @@
       <c r="A13">
         <v>2022</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>2</v>
+      <c r="B13" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2051,8 +2075,8 @@
       <c r="A14">
         <v>2021</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
+      <c r="B14" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2159,8 +2183,8 @@
       <c r="A15">
         <v>2021</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
+      <c r="B15" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2267,8 +2291,8 @@
       <c r="A16">
         <v>2021</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>1</v>
+      <c r="B16" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C16">
         <v>0.51814058967413168</v>
@@ -2375,8 +2399,8 @@
       <c r="A17">
         <v>2021</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
+      <c r="B17" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2483,8 +2507,8 @@
       <c r="A18">
         <v>2021</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>4</v>
+      <c r="B18" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2591,8 +2615,8 @@
       <c r="A19">
         <v>2021</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>2</v>
+      <c r="B19" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2699,8 +2723,8 @@
       <c r="A20">
         <v>2020</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
+      <c r="B20" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2804,8 +2828,8 @@
       <c r="A21">
         <v>2020</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>3</v>
+      <c r="B21" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2912,8 +2936,8 @@
       <c r="A22">
         <v>2020</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>1</v>
+      <c r="B22" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C22">
         <v>0.52068780229927525</v>
@@ -3020,8 +3044,8 @@
       <c r="A23">
         <v>2020</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>5</v>
+      <c r="B23" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3128,8 +3152,8 @@
       <c r="A24">
         <v>2020</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>4</v>
+      <c r="B24" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -3236,8 +3260,8 @@
       <c r="A25">
         <v>2020</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>2</v>
+      <c r="B25" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3338,6 +3362,1302 @@
       <c r="AI25">
         <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2019</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26">
+        <v>0.24556354923424994</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>4.7961626637572235E-4</v>
+      </c>
+      <c r="F26">
+        <v>9.5923264248765571E-4</v>
+      </c>
+      <c r="G26">
+        <v>0.21438848928615892</v>
+      </c>
+      <c r="H26">
+        <v>8.1534771868045468E-3</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1.1510791380643237E-2</v>
+      </c>
+      <c r="L26">
+        <v>0.15875299766791806</v>
+      </c>
+      <c r="M26">
+        <v>2.4940047936525572E-2</v>
+      </c>
+      <c r="N26">
+        <v>5.179856115802646E-2</v>
+      </c>
+      <c r="O26">
+        <v>2.1103117476311162E-2</v>
+      </c>
+      <c r="P26">
+        <v>4.7961630697812049E-2</v>
+      </c>
+      <c r="Q26">
+        <v>2.3980815513510341E-3</v>
+      </c>
+      <c r="R26">
+        <v>1.4388489088633782E-3</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>1.8225419658584405E-2</v>
+      </c>
+      <c r="AB26">
+        <v>4.7961626637572235E-4</v>
+      </c>
+      <c r="AC26">
+        <v>1.9184651752391004E-3</v>
+      </c>
+      <c r="AD26">
+        <v>1.9184651752391004E-3</v>
+      </c>
+      <c r="AE26">
+        <v>8.3932853748605138E-2</v>
+      </c>
+      <c r="AF26">
+        <v>7.7697841737039683E-2</v>
+      </c>
+      <c r="AG26">
+        <v>2.446043167014985E-2</v>
+      </c>
+      <c r="AH26">
+        <v>1.9184651752391004E-3</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0.2463054190356864</v>
+      </c>
+      <c r="T27">
+        <v>0.10344827601753016</v>
+      </c>
+      <c r="U27">
+        <v>9.8522170319299187E-3</v>
+      </c>
+      <c r="V27">
+        <v>1.4778324984348083E-2</v>
+      </c>
+      <c r="W27">
+        <v>0.21674876793989667</v>
+      </c>
+      <c r="X27">
+        <v>0.3940886700062608</v>
+      </c>
+      <c r="Y27">
+        <v>9.8522170319299187E-3</v>
+      </c>
+      <c r="Z27">
+        <v>4.9261079524181616E-3</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2018</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <v>0.23564169235017687</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>2.363507278428048E-4</v>
+      </c>
+      <c r="F28">
+        <v>7.0905218352841431E-4</v>
+      </c>
+      <c r="G28">
+        <v>0.21011581187640849</v>
+      </c>
+      <c r="H28">
+        <v>8.0359252956981424E-3</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>2.8834790883184743E-2</v>
+      </c>
+      <c r="L28">
+        <v>0.16426376749045626</v>
+      </c>
+      <c r="M28">
+        <v>1.6780902884733256E-2</v>
+      </c>
+      <c r="N28">
+        <v>4.9870007088705592E-2</v>
+      </c>
+      <c r="O28">
+        <v>1.7726305796104475E-2</v>
+      </c>
+      <c r="P28">
+        <v>5.506972343067297E-2</v>
+      </c>
+      <c r="Q28">
+        <v>1.6544552047081894E-3</v>
+      </c>
+      <c r="R28">
+        <v>2.8362089537307691E-3</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>1.5126447680025065E-2</v>
+      </c>
+      <c r="AB28">
+        <v>4.7270145568560959E-4</v>
+      </c>
+      <c r="AC28">
+        <v>1.4181044768653845E-3</v>
+      </c>
+      <c r="AD28">
+        <v>3.7816118651019881E-3</v>
+      </c>
+      <c r="AE28">
+        <v>8.1304656087969759E-2</v>
+      </c>
+      <c r="AF28">
+        <v>7.6577641201687988E-2</v>
+      </c>
+      <c r="AG28">
+        <v>2.5525880363959811E-2</v>
+      </c>
+      <c r="AH28">
+        <v>4.0179627027533494E-3</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2018</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0.26987951776745656</v>
+      </c>
+      <c r="T29">
+        <v>0.1060240966256316</v>
+      </c>
+      <c r="U29">
+        <v>4.8192767631365964E-3</v>
+      </c>
+      <c r="V29">
+        <v>9.638554645791263E-3</v>
+      </c>
+      <c r="W29">
+        <v>0.20240963860547195</v>
+      </c>
+      <c r="X29">
+        <v>0.38313252953779309</v>
+      </c>
+      <c r="Y29">
+        <v>1.4457831408927858E-2</v>
+      </c>
+      <c r="Z29">
+        <v>9.638554645791263E-3</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2017</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30">
+        <v>0.22600186391395383</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>4.6598321323713731E-4</v>
+      </c>
+      <c r="G30">
+        <v>0.20596458530524156</v>
+      </c>
+      <c r="H30">
+        <v>7.9217148447890233E-3</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>4.5666355996027905E-2</v>
+      </c>
+      <c r="L30">
+        <v>0.16961789379371409</v>
+      </c>
+      <c r="M30">
+        <v>8.8536812712632987E-3</v>
+      </c>
+      <c r="N30">
+        <v>4.799627217209243E-2</v>
+      </c>
+      <c r="O30">
+        <v>1.4445479939987791E-2</v>
+      </c>
+      <c r="P30">
+        <v>6.1975768898843084E-2</v>
+      </c>
+      <c r="Q30">
+        <v>9.3196642647427462E-4</v>
+      </c>
+      <c r="R30">
+        <v>4.1938490290130805E-3</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>1.2115563873802103E-2</v>
+      </c>
+      <c r="AB30">
+        <v>4.6598321323713731E-4</v>
+      </c>
+      <c r="AC30">
+        <v>9.3196642647427462E-4</v>
+      </c>
+      <c r="AD30">
+        <v>5.5917986687244927E-3</v>
+      </c>
+      <c r="AE30">
+        <v>7.8751164905016574E-2</v>
+      </c>
+      <c r="AF30">
+        <v>7.5489282412356598E-2</v>
+      </c>
+      <c r="AG30">
+        <v>2.6561043813789893E-2</v>
+      </c>
+      <c r="AH30">
+        <v>6.0577818819616295E-3</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2017</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+      <c r="R31" s="2">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0.29245283035656816</v>
+      </c>
+      <c r="T31">
+        <v>0.10849056584886081</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>4.7169810271448917E-3</v>
+      </c>
+      <c r="W31">
+        <v>0.18867924553485227</v>
+      </c>
+      <c r="X31">
+        <v>0.37264151004255969</v>
+      </c>
+      <c r="Y31">
+        <v>1.8867924108579567E-2</v>
+      </c>
+      <c r="Z31">
+        <v>1.4150943081434672E-2</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2016</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32">
+        <v>0.22600186391395383</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>4.6598321323713731E-4</v>
+      </c>
+      <c r="G32">
+        <v>0.20596458530524156</v>
+      </c>
+      <c r="H32">
+        <v>7.9217148447890233E-3</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>4.5666355996027905E-2</v>
+      </c>
+      <c r="L32">
+        <v>0.16961789379371409</v>
+      </c>
+      <c r="M32">
+        <v>8.8536812712632987E-3</v>
+      </c>
+      <c r="N32">
+        <v>4.799627217209243E-2</v>
+      </c>
+      <c r="O32">
+        <v>1.4445479939987791E-2</v>
+      </c>
+      <c r="P32">
+        <v>6.1975768898843084E-2</v>
+      </c>
+      <c r="Q32">
+        <v>9.3196642647427462E-4</v>
+      </c>
+      <c r="R32">
+        <v>4.1938490290130805E-3</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>1.2115563873802103E-2</v>
+      </c>
+      <c r="AB32">
+        <v>4.6598321323713731E-4</v>
+      </c>
+      <c r="AC32">
+        <v>9.3196642647427462E-4</v>
+      </c>
+      <c r="AD32">
+        <v>5.5917986687244927E-3</v>
+      </c>
+      <c r="AE32">
+        <v>7.8751164905016574E-2</v>
+      </c>
+      <c r="AF32">
+        <v>7.5489282412356598E-2</v>
+      </c>
+      <c r="AG32">
+        <v>2.6561043813789893E-2</v>
+      </c>
+      <c r="AH32">
+        <v>6.0577818819616295E-3</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2016</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="2">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0.29245283035656816</v>
+      </c>
+      <c r="T33">
+        <v>0.10849056584886081</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>4.7169810271448917E-3</v>
+      </c>
+      <c r="W33">
+        <v>0.18867924553485227</v>
+      </c>
+      <c r="X33">
+        <v>0.37264151004255969</v>
+      </c>
+      <c r="Y33">
+        <v>1.8867924108579567E-2</v>
+      </c>
+      <c r="Z33">
+        <v>1.4150943081434672E-2</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2015</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34">
+        <v>0.22600186391395383</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>4.6598321323713731E-4</v>
+      </c>
+      <c r="G34">
+        <v>0.20596458530524156</v>
+      </c>
+      <c r="H34">
+        <v>7.9217148447890233E-3</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>4.5666355996027905E-2</v>
+      </c>
+      <c r="L34">
+        <v>0.16961789379371409</v>
+      </c>
+      <c r="M34">
+        <v>8.8536812712632987E-3</v>
+      </c>
+      <c r="N34">
+        <v>4.799627217209243E-2</v>
+      </c>
+      <c r="O34">
+        <v>1.4445479939987791E-2</v>
+      </c>
+      <c r="P34">
+        <v>6.1975768898843084E-2</v>
+      </c>
+      <c r="Q34">
+        <v>9.3196642647427462E-4</v>
+      </c>
+      <c r="R34">
+        <v>4.1938490290130805E-3</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>1.2115563873802103E-2</v>
+      </c>
+      <c r="AB34">
+        <v>4.6598321323713731E-4</v>
+      </c>
+      <c r="AC34">
+        <v>9.3196642647427462E-4</v>
+      </c>
+      <c r="AD34">
+        <v>5.5917986687244927E-3</v>
+      </c>
+      <c r="AE34">
+        <v>7.8751164905016574E-2</v>
+      </c>
+      <c r="AF34">
+        <v>7.5489282412356598E-2</v>
+      </c>
+      <c r="AG34">
+        <v>2.6561043813789893E-2</v>
+      </c>
+      <c r="AH34">
+        <v>6.0577818819616295E-3</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2015</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="2">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0.29245283035656816</v>
+      </c>
+      <c r="T35">
+        <v>0.10849056584886081</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>4.7169810271448917E-3</v>
+      </c>
+      <c r="W35">
+        <v>0.18867924553485227</v>
+      </c>
+      <c r="X35">
+        <v>0.37264151004255969</v>
+      </c>
+      <c r="Y35">
+        <v>1.8867924108579567E-2</v>
+      </c>
+      <c r="Z35">
+        <v>1.4150943081434672E-2</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2014</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36">
+        <v>0.22600186391395383</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>4.6598321323713731E-4</v>
+      </c>
+      <c r="G36">
+        <v>0.20596458530524156</v>
+      </c>
+      <c r="H36">
+        <v>7.9217148447890233E-3</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>4.5666355996027905E-2</v>
+      </c>
+      <c r="L36">
+        <v>0.16961789379371409</v>
+      </c>
+      <c r="M36">
+        <v>8.8536812712632987E-3</v>
+      </c>
+      <c r="N36">
+        <v>4.799627217209243E-2</v>
+      </c>
+      <c r="O36">
+        <v>1.4445479939987791E-2</v>
+      </c>
+      <c r="P36">
+        <v>6.1975768898843084E-2</v>
+      </c>
+      <c r="Q36">
+        <v>9.3196642647427462E-4</v>
+      </c>
+      <c r="R36">
+        <v>4.1938490290130805E-3</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>1.2115563873802103E-2</v>
+      </c>
+      <c r="AB36">
+        <v>4.6598321323713731E-4</v>
+      </c>
+      <c r="AC36">
+        <v>9.3196642647427462E-4</v>
+      </c>
+      <c r="AD36">
+        <v>5.5917986687244927E-3</v>
+      </c>
+      <c r="AE36">
+        <v>7.8751164905016574E-2</v>
+      </c>
+      <c r="AF36">
+        <v>7.5489282412356598E-2</v>
+      </c>
+      <c r="AG36">
+        <v>2.6561043813789893E-2</v>
+      </c>
+      <c r="AH36">
+        <v>6.0577818819616295E-3</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2014</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
+      <c r="R37" s="2">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0.29245283035656816</v>
+      </c>
+      <c r="T37">
+        <v>0.10849056584886081</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>4.7169810271448917E-3</v>
+      </c>
+      <c r="W37">
+        <v>0.18867924553485227</v>
+      </c>
+      <c r="X37">
+        <v>0.37264151004255969</v>
+      </c>
+      <c r="Y37">
+        <v>1.8867924108579567E-2</v>
+      </c>
+      <c r="Z37">
+        <v>1.4150943081434672E-2</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3350,7 +4670,7 @@
   <dimension ref="A1:D386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D203" sqref="D203:D287"/>
+      <selection activeCell="D197" sqref="D197:D281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3360,24 +4680,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>2012</v>
@@ -3388,10 +4708,10 @@
     </row>
     <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>2013</v>
@@ -3402,10 +4722,10 @@
     </row>
     <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>2014</v>
@@ -3416,10 +4736,10 @@
     </row>
     <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>2015</v>
@@ -3430,10 +4750,10 @@
     </row>
     <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>2016</v>
@@ -3444,10 +4764,10 @@
     </row>
     <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>2017</v>
@@ -3458,10 +4778,10 @@
     </row>
     <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>2018</v>
@@ -3472,10 +4792,10 @@
     </row>
     <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>2019</v>
@@ -3486,10 +4806,10 @@
     </row>
     <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>2021</v>
@@ -3500,10 +4820,10 @@
     </row>
     <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -3514,10 +4834,10 @@
     </row>
     <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -3528,10 +4848,10 @@
     </row>
     <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>2024</v>
@@ -3542,10 +4862,10 @@
     </row>
     <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>2012</v>
@@ -3556,10 +4876,10 @@
     </row>
     <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>2013</v>
@@ -3570,10 +4890,10 @@
     </row>
     <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>2014</v>
@@ -3584,10 +4904,10 @@
     </row>
     <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>2015</v>
@@ -3598,10 +4918,10 @@
     </row>
     <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>2016</v>
@@ -3612,10 +4932,10 @@
     </row>
     <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>2017</v>
@@ -3626,10 +4946,10 @@
     </row>
     <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>2018</v>
@@ -3640,10 +4960,10 @@
     </row>
     <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>2019</v>
@@ -3654,10 +4974,10 @@
     </row>
     <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>2021</v>
@@ -3668,10 +4988,10 @@
     </row>
     <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -3682,10 +5002,10 @@
     </row>
     <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>2023</v>
@@ -3696,10 +5016,10 @@
     </row>
     <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>2024</v>
@@ -3710,10 +5030,10 @@
     </row>
     <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C26">
         <v>2012</v>
@@ -3724,10 +5044,10 @@
     </row>
     <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <v>2013</v>
@@ -3738,10 +5058,10 @@
     </row>
     <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <v>2014</v>
@@ -3752,10 +5072,10 @@
     </row>
     <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C29">
         <v>2015</v>
@@ -3766,10 +5086,10 @@
     </row>
     <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C30">
         <v>2016</v>
@@ -3780,10 +5100,10 @@
     </row>
     <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C31">
         <v>2017</v>
@@ -3794,10 +5114,10 @@
     </row>
     <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <v>2018</v>
@@ -3808,10 +5128,10 @@
     </row>
     <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>2019</v>
@@ -3822,10 +5142,10 @@
     </row>
     <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>2021</v>
@@ -3836,10 +5156,10 @@
     </row>
     <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>2022</v>
@@ -3850,10 +5170,10 @@
     </row>
     <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>2023</v>
@@ -3864,10 +5184,10 @@
     </row>
     <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <v>2024</v>
@@ -3878,10 +5198,10 @@
     </row>
     <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C38">
         <v>2012</v>
@@ -3892,10 +5212,10 @@
     </row>
     <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C39">
         <v>2013</v>
@@ -3906,10 +5226,10 @@
     </row>
     <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C40">
         <v>2014</v>
@@ -3920,10 +5240,10 @@
     </row>
     <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C41">
         <v>2015</v>
@@ -3934,10 +5254,10 @@
     </row>
     <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C42">
         <v>2016</v>
@@ -3948,10 +5268,10 @@
     </row>
     <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C43">
         <v>2017</v>
@@ -3962,10 +5282,10 @@
     </row>
     <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C44">
         <v>2018</v>
@@ -3976,10 +5296,10 @@
     </row>
     <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C45">
         <v>2019</v>
@@ -3990,10 +5310,10 @@
     </row>
     <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C46">
         <v>2021</v>
@@ -4004,10 +5324,10 @@
     </row>
     <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C47">
         <v>2022</v>
@@ -4018,10 +5338,10 @@
     </row>
     <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C48">
         <v>2023</v>
@@ -4032,10 +5352,10 @@
     </row>
     <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C49">
         <v>2024</v>
@@ -4046,10 +5366,10 @@
     </row>
     <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C50">
         <v>2012</v>
@@ -4060,10 +5380,10 @@
     </row>
     <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C51">
         <v>2013</v>
@@ -4074,10 +5394,10 @@
     </row>
     <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C52">
         <v>2014</v>
@@ -4088,10 +5408,10 @@
     </row>
     <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C53">
         <v>2015</v>
@@ -4102,10 +5422,10 @@
     </row>
     <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C54">
         <v>2016</v>
@@ -4116,10 +5436,10 @@
     </row>
     <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C55">
         <v>2017</v>
@@ -4130,10 +5450,10 @@
     </row>
     <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C56">
         <v>2018</v>
@@ -4144,10 +5464,10 @@
     </row>
     <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C57">
         <v>2019</v>
@@ -4158,10 +5478,10 @@
     </row>
     <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C58">
         <v>2021</v>
@@ -4172,10 +5492,10 @@
     </row>
     <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C59">
         <v>2022</v>
@@ -4186,10 +5506,10 @@
     </row>
     <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C60">
         <v>2023</v>
@@ -4200,10 +5520,10 @@
     </row>
     <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C61">
         <v>2024</v>
@@ -4214,10 +5534,10 @@
     </row>
     <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
         <v>6</v>
-      </c>
-      <c r="B62" t="s">
-        <v>12</v>
       </c>
       <c r="C62">
         <v>2012</v>
@@ -4228,10 +5548,10 @@
     </row>
     <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
         <v>6</v>
-      </c>
-      <c r="B63" t="s">
-        <v>12</v>
       </c>
       <c r="C63">
         <v>2013</v>
@@ -4242,10 +5562,10 @@
     </row>
     <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
         <v>6</v>
-      </c>
-      <c r="B64" t="s">
-        <v>12</v>
       </c>
       <c r="C64">
         <v>2014</v>
@@ -4256,10 +5576,10 @@
     </row>
     <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
         <v>6</v>
-      </c>
-      <c r="B65" t="s">
-        <v>12</v>
       </c>
       <c r="C65">
         <v>2015</v>
@@ -4270,10 +5590,10 @@
     </row>
     <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
         <v>6</v>
-      </c>
-      <c r="B66" t="s">
-        <v>12</v>
       </c>
       <c r="C66">
         <v>2016</v>
@@ -4284,10 +5604,10 @@
     </row>
     <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
         <v>6</v>
-      </c>
-      <c r="B67" t="s">
-        <v>12</v>
       </c>
       <c r="C67">
         <v>2017</v>
@@ -4298,10 +5618,10 @@
     </row>
     <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
         <v>6</v>
-      </c>
-      <c r="B68" t="s">
-        <v>12</v>
       </c>
       <c r="C68">
         <v>2018</v>
@@ -4312,10 +5632,10 @@
     </row>
     <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
         <v>6</v>
-      </c>
-      <c r="B69" t="s">
-        <v>12</v>
       </c>
       <c r="C69">
         <v>2019</v>
@@ -4326,10 +5646,10 @@
     </row>
     <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
         <v>6</v>
-      </c>
-      <c r="B70" t="s">
-        <v>12</v>
       </c>
       <c r="C70">
         <v>2021</v>
@@ -4340,10 +5660,10 @@
     </row>
     <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
         <v>6</v>
-      </c>
-      <c r="B71" t="s">
-        <v>12</v>
       </c>
       <c r="C71">
         <v>2022</v>
@@ -4354,10 +5674,10 @@
     </row>
     <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
         <v>6</v>
-      </c>
-      <c r="B72" t="s">
-        <v>12</v>
       </c>
       <c r="C72">
         <v>2023</v>
@@ -4368,10 +5688,10 @@
     </row>
     <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
         <v>6</v>
-      </c>
-      <c r="B73" t="s">
-        <v>12</v>
       </c>
       <c r="C73">
         <v>2024</v>
@@ -4382,10 +5702,10 @@
     </row>
     <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C74">
         <v>2012</v>
@@ -4396,10 +5716,10 @@
     </row>
     <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C75">
         <v>2013</v>
@@ -4410,10 +5730,10 @@
     </row>
     <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C76">
         <v>2014</v>
@@ -4424,10 +5744,10 @@
     </row>
     <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C77">
         <v>2015</v>
@@ -4438,10 +5758,10 @@
     </row>
     <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C78">
         <v>2016</v>
@@ -4452,10 +5772,10 @@
     </row>
     <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C79">
         <v>2017</v>
@@ -4466,10 +5786,10 @@
     </row>
     <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C80">
         <v>2018</v>
@@ -4480,10 +5800,10 @@
     </row>
     <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C81">
         <v>2019</v>
@@ -4494,10 +5814,10 @@
     </row>
     <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C82">
         <v>2021</v>
@@ -4508,10 +5828,10 @@
     </row>
     <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C83">
         <v>2022</v>
@@ -4522,10 +5842,10 @@
     </row>
     <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C84">
         <v>2023</v>
@@ -4536,10 +5856,10 @@
     </row>
     <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C85">
         <v>2024</v>
@@ -4550,10 +5870,10 @@
     </row>
     <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C86">
         <v>2012</v>
@@ -4564,10 +5884,10 @@
     </row>
     <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C87">
         <v>2013</v>
@@ -4578,10 +5898,10 @@
     </row>
     <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C88">
         <v>2014</v>
@@ -4592,10 +5912,10 @@
     </row>
     <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C89">
         <v>2015</v>
@@ -4606,10 +5926,10 @@
     </row>
     <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C90">
         <v>2016</v>
@@ -4620,10 +5940,10 @@
     </row>
     <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C91">
         <v>2017</v>
@@ -4634,10 +5954,10 @@
     </row>
     <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C92">
         <v>2018</v>
@@ -4648,10 +5968,10 @@
     </row>
     <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C93">
         <v>2019</v>
@@ -4662,10 +5982,10 @@
     </row>
     <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C94">
         <v>2021</v>
@@ -4676,10 +5996,10 @@
     </row>
     <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C95">
         <v>2022</v>
@@ -4690,10 +6010,10 @@
     </row>
     <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C96">
         <v>2023</v>
@@ -4704,10 +6024,10 @@
     </row>
     <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C97">
         <v>2024</v>
@@ -4718,10 +6038,10 @@
     </row>
     <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C98">
         <v>2012</v>
@@ -4732,10 +6052,10 @@
     </row>
     <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C99">
         <v>2013</v>
@@ -4746,10 +6066,10 @@
     </row>
     <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C100">
         <v>2014</v>
@@ -4760,10 +6080,10 @@
     </row>
     <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C101">
         <v>2015</v>
@@ -4774,10 +6094,10 @@
     </row>
     <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C102">
         <v>2016</v>
@@ -4788,10 +6108,10 @@
     </row>
     <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C103">
         <v>2017</v>
@@ -4802,10 +6122,10 @@
     </row>
     <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C104">
         <v>2018</v>
@@ -4816,10 +6136,10 @@
     </row>
     <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C105">
         <v>2019</v>
@@ -4830,10 +6150,10 @@
     </row>
     <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C106">
         <v>2021</v>
@@ -4844,10 +6164,10 @@
     </row>
     <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C107">
         <v>2022</v>
@@ -4858,10 +6178,10 @@
     </row>
     <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C108">
         <v>2023</v>
@@ -4872,10 +6192,10 @@
     </row>
     <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C109">
         <v>2024</v>
@@ -4886,10 +6206,10 @@
     </row>
     <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C110">
         <v>2012</v>
@@ -4900,10 +6220,10 @@
     </row>
     <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C111">
         <v>2013</v>
@@ -4914,10 +6234,10 @@
     </row>
     <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C112">
         <v>2014</v>
@@ -4928,10 +6248,10 @@
     </row>
     <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C113">
         <v>2015</v>
@@ -4942,10 +6262,10 @@
     </row>
     <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C114">
         <v>2016</v>
@@ -4956,10 +6276,10 @@
     </row>
     <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C115">
         <v>2017</v>
@@ -4970,10 +6290,10 @@
     </row>
     <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C116">
         <v>2018</v>
@@ -4984,10 +6304,10 @@
     </row>
     <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C117">
         <v>2019</v>
@@ -4998,10 +6318,10 @@
     </row>
     <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C118">
         <v>2021</v>
@@ -5012,10 +6332,10 @@
     </row>
     <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C119">
         <v>2022</v>
@@ -5026,10 +6346,10 @@
     </row>
     <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C120">
         <v>2023</v>
@@ -5040,10 +6360,10 @@
     </row>
     <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C121">
         <v>2024</v>
@@ -5054,10 +6374,10 @@
     </row>
     <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C122">
         <v>2012</v>
@@ -5068,10 +6388,10 @@
     </row>
     <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C123">
         <v>2013</v>
@@ -5082,10 +6402,10 @@
     </row>
     <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C124">
         <v>2014</v>
@@ -5096,10 +6416,10 @@
     </row>
     <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C125">
         <v>2015</v>
@@ -5110,10 +6430,10 @@
     </row>
     <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C126">
         <v>2016</v>
@@ -5124,10 +6444,10 @@
     </row>
     <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C127">
         <v>2017</v>
@@ -5138,10 +6458,10 @@
     </row>
     <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C128">
         <v>2018</v>
@@ -5152,10 +6472,10 @@
     </row>
     <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C129">
         <v>2019</v>
@@ -5166,10 +6486,10 @@
     </row>
     <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C130">
         <v>2021</v>
@@ -5180,10 +6500,10 @@
     </row>
     <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C131">
         <v>2022</v>
@@ -5194,10 +6514,10 @@
     </row>
     <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C132">
         <v>2023</v>
@@ -5208,10 +6528,10 @@
     </row>
     <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C133">
         <v>2024</v>
@@ -5222,10 +6542,10 @@
     </row>
     <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C134">
         <v>2012</v>
@@ -5236,10 +6556,10 @@
     </row>
     <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C135">
         <v>2013</v>
@@ -5250,10 +6570,10 @@
     </row>
     <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C136">
         <v>2014</v>
@@ -5264,10 +6584,10 @@
     </row>
     <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C137">
         <v>2015</v>
@@ -5278,10 +6598,10 @@
     </row>
     <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C138">
         <v>2016</v>
@@ -5292,10 +6612,10 @@
     </row>
     <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C139">
         <v>2017</v>
@@ -5306,10 +6626,10 @@
     </row>
     <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C140">
         <v>2018</v>
@@ -5320,10 +6640,10 @@
     </row>
     <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C141">
         <v>2019</v>
@@ -5334,10 +6654,10 @@
     </row>
     <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C142">
         <v>2021</v>
@@ -5348,10 +6668,10 @@
     </row>
     <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C143">
         <v>2022</v>
@@ -5362,10 +6682,10 @@
     </row>
     <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C144">
         <v>2023</v>
@@ -5376,10 +6696,10 @@
     </row>
     <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C145">
         <v>2024</v>
@@ -5390,10 +6710,10 @@
     </row>
     <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C146">
         <v>2012</v>
@@ -5404,10 +6724,10 @@
     </row>
     <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C147">
         <v>2013</v>
@@ -5418,10 +6738,10 @@
     </row>
     <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B148" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C148">
         <v>2014</v>
@@ -5432,10 +6752,10 @@
     </row>
     <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C149">
         <v>2015</v>
@@ -5446,10 +6766,10 @@
     </row>
     <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C150">
         <v>2016</v>
@@ -5460,10 +6780,10 @@
     </row>
     <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C151">
         <v>2017</v>
@@ -5474,10 +6794,10 @@
     </row>
     <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C152">
         <v>2018</v>
@@ -5488,10 +6808,10 @@
     </row>
     <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C153">
         <v>2019</v>
@@ -5502,10 +6822,10 @@
     </row>
     <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C154">
         <v>2021</v>
@@ -5516,10 +6836,10 @@
     </row>
     <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C155">
         <v>2022</v>
@@ -5530,10 +6850,10 @@
     </row>
     <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B156" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C156">
         <v>2023</v>
@@ -5544,10 +6864,10 @@
     </row>
     <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C157">
         <v>2024</v>
@@ -5558,10 +6878,10 @@
     </row>
     <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C158">
         <v>2012</v>
@@ -5572,10 +6892,10 @@
     </row>
     <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C159">
         <v>2013</v>
@@ -5586,10 +6906,10 @@
     </row>
     <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C160">
         <v>2014</v>
@@ -5600,10 +6920,10 @@
     </row>
     <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B161" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C161">
         <v>2015</v>
@@ -5614,10 +6934,10 @@
     </row>
     <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B162" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C162">
         <v>2015</v>
@@ -5628,10 +6948,10 @@
     </row>
     <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B163" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C163">
         <v>2016</v>
@@ -5642,10 +6962,10 @@
     </row>
     <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B164" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C164">
         <v>2017</v>
@@ -5656,10 +6976,10 @@
     </row>
     <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B165" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C165">
         <v>2018</v>
@@ -5670,10 +6990,10 @@
     </row>
     <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B166" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C166">
         <v>2019</v>
@@ -5684,10 +7004,10 @@
     </row>
     <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B167" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C167">
         <v>2021</v>
@@ -5698,10 +7018,10 @@
     </row>
     <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B168" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C168">
         <v>2022</v>
@@ -5712,10 +7032,10 @@
     </row>
     <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B169" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C169">
         <v>2023</v>
@@ -5726,10 +7046,10 @@
     </row>
     <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B170" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C170">
         <v>2024</v>
@@ -5740,10 +7060,10 @@
     </row>
     <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B171" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C171">
         <v>2012</v>
@@ -5754,10 +7074,10 @@
     </row>
     <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B172" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C172">
         <v>2013</v>
@@ -5768,10 +7088,10 @@
     </row>
     <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B173" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C173">
         <v>2014</v>
@@ -5782,10 +7102,10 @@
     </row>
     <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B174" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C174">
         <v>2015</v>
@@ -5796,10 +7116,10 @@
     </row>
     <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B175" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C175">
         <v>2016</v>
@@ -5810,10 +7130,10 @@
     </row>
     <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B176" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C176">
         <v>2017</v>
@@ -5824,10 +7144,10 @@
     </row>
     <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B177" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C177">
         <v>2018</v>
@@ -5838,10 +7158,10 @@
     </row>
     <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C178">
         <v>2019</v>
@@ -5852,10 +7172,10 @@
     </row>
     <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B179" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C179">
         <v>2021</v>
@@ -5866,10 +7186,10 @@
     </row>
     <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B180" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C180">
         <v>2022</v>
@@ -5880,10 +7200,10 @@
     </row>
     <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B181" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C181">
         <v>2023</v>
@@ -5894,10 +7214,10 @@
     </row>
     <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B182" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C182">
         <v>2024</v>
@@ -5908,10 +7228,10 @@
     </row>
     <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B183" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C183">
         <v>2012</v>
@@ -5922,10 +7242,10 @@
     </row>
     <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B184" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C184">
         <v>2013</v>
@@ -5936,10 +7256,10 @@
     </row>
     <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B185" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C185">
         <v>2014</v>
@@ -5950,10 +7270,10 @@
     </row>
     <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B186" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C186">
         <v>2015</v>
@@ -5964,10 +7284,10 @@
     </row>
     <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B187" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C187">
         <v>2016</v>
@@ -5978,10 +7298,10 @@
     </row>
     <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B188" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C188">
         <v>2017</v>
@@ -5992,10 +7312,10 @@
     </row>
     <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B189" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C189">
         <v>2018</v>
@@ -6006,10 +7326,10 @@
     </row>
     <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B190" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C190">
         <v>2019</v>
@@ -6020,10 +7340,10 @@
     </row>
     <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B191" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C191">
         <v>2021</v>
@@ -6034,10 +7354,10 @@
     </row>
     <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B192" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C192">
         <v>2022</v>
@@ -6048,10 +7368,10 @@
     </row>
     <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B193" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C193">
         <v>2023</v>
@@ -6062,10 +7382,10 @@
     </row>
     <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B194" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C194">
         <v>2024</v>
@@ -6076,10 +7396,10 @@
     </row>
     <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C195">
         <v>2012</v>
@@ -6090,10 +7410,10 @@
     </row>
     <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C196">
         <v>2013</v>
@@ -6102,12 +7422,12 @@
         <v>2.6293469E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C197">
         <v>2014</v>
@@ -6118,10 +7438,10 @@
     </row>
     <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C198">
         <v>2015</v>
@@ -6132,10 +7452,10 @@
     </row>
     <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C199">
         <v>2016</v>
@@ -6146,10 +7466,10 @@
     </row>
     <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C200">
         <v>2017</v>
@@ -6160,10 +7480,10 @@
     </row>
     <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C201">
         <v>2018</v>
@@ -6174,10 +7494,10 @@
     </row>
     <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C202">
         <v>2019</v>
@@ -6186,12 +7506,12 @@
         <v>2.1853146899999999E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C203">
         <v>2021</v>
@@ -6202,10 +7522,10 @@
     </row>
     <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C204">
         <v>2022</v>
@@ -6216,10 +7536,10 @@
     </row>
     <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C205">
         <v>2023</v>
@@ -6230,10 +7550,10 @@
     </row>
     <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C206">
         <v>2024</v>
@@ -6244,10 +7564,10 @@
     </row>
     <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C207">
         <v>2012</v>
@@ -6258,10 +7578,10 @@
     </row>
     <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C208">
         <v>2013</v>
@@ -6270,12 +7590,12 @@
         <v>9.7540287999999999E-3</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C209">
         <v>2014</v>
@@ -6286,10 +7606,10 @@
     </row>
     <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C210">
         <v>2015</v>
@@ -6300,10 +7620,10 @@
     </row>
     <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C211">
         <v>2016</v>
@@ -6314,10 +7634,10 @@
     </row>
     <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C212">
         <v>2017</v>
@@ -6328,10 +7648,10 @@
     </row>
     <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C213">
         <v>2018</v>
@@ -6342,10 +7662,10 @@
     </row>
     <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C214">
         <v>2019</v>
@@ -6354,12 +7674,12 @@
         <v>9.1783217000000004E-3</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C215">
         <v>2021</v>
@@ -6370,10 +7690,10 @@
     </row>
     <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C216">
         <v>2022</v>
@@ -6384,10 +7704,10 @@
     </row>
     <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C217">
         <v>2023</v>
@@ -6398,10 +7718,10 @@
     </row>
     <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C218">
         <v>2024</v>
@@ -6412,10 +7732,10 @@
     </row>
     <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B219" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C219">
         <v>2012</v>
@@ -6426,10 +7746,10 @@
     </row>
     <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B220" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C220">
         <v>2013</v>
@@ -6438,12 +7758,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B221" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C221">
         <v>2014</v>
@@ -6454,10 +7774,10 @@
     </row>
     <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B222" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C222">
         <v>2015</v>
@@ -6468,10 +7788,10 @@
     </row>
     <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B223" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C223">
         <v>2016</v>
@@ -6482,10 +7802,10 @@
     </row>
     <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B224" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C224">
         <v>2017</v>
@@ -6496,10 +7816,10 @@
     </row>
     <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B225" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C225">
         <v>2018</v>
@@ -6510,10 +7830,10 @@
     </row>
     <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B226" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C226">
         <v>2019</v>
@@ -6522,12 +7842,12 @@
         <v>8.7412589999999999E-4</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B227" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C227">
         <v>2021</v>
@@ -6538,10 +7858,10 @@
     </row>
     <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B228" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C228">
         <v>2022</v>
@@ -6552,10 +7872,10 @@
     </row>
     <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B229" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C229">
         <v>2023</v>
@@ -6566,10 +7886,10 @@
     </row>
     <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B230" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C230">
         <v>2024</v>
@@ -6580,10 +7900,10 @@
     </row>
     <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B231" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C231">
         <v>2012</v>
@@ -6594,10 +7914,10 @@
     </row>
     <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B232" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C232">
         <v>2013</v>
@@ -6606,12 +7926,12 @@
         <v>4.240882E-4</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B233" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C233">
         <v>2014</v>
@@ -6622,10 +7942,10 @@
     </row>
     <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B234" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C234">
         <v>2015</v>
@@ -6636,10 +7956,10 @@
     </row>
     <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B235" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C235">
         <v>2016</v>
@@ -6650,10 +7970,10 @@
     </row>
     <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B236" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C236">
         <v>2017</v>
@@ -6664,10 +7984,10 @@
     </row>
     <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B237" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C237">
         <v>2018</v>
@@ -6678,10 +7998,10 @@
     </row>
     <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B238" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C238">
         <v>2019</v>
@@ -6690,12 +8010,12 @@
         <v>1.3111888000000001E-3</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B239" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C239">
         <v>2021</v>
@@ -6706,10 +8026,10 @@
     </row>
     <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B240" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C240">
         <v>2022</v>
@@ -6720,10 +8040,10 @@
     </row>
     <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B241" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C241">
         <v>2023</v>
@@ -6734,10 +8054,10 @@
     </row>
     <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B242" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C242">
         <v>2024</v>
@@ -6748,10 +8068,10 @@
     </row>
     <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B243" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C243">
         <v>2012</v>
@@ -6762,10 +8082,10 @@
     </row>
     <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B244" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C244">
         <v>2013</v>
@@ -6774,12 +8094,12 @@
         <v>1.69635284E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B245" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C245">
         <v>2014</v>
@@ -6790,10 +8110,10 @@
     </row>
     <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B246" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C246">
         <v>2015</v>
@@ -6804,10 +8124,10 @@
     </row>
     <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B247" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C247">
         <v>2016</v>
@@ -6818,10 +8138,10 @@
     </row>
     <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B248" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C248">
         <v>2017</v>
@@ -6832,10 +8152,10 @@
     </row>
     <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B249" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C249">
         <v>2018</v>
@@ -6846,10 +8166,10 @@
     </row>
     <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B250" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C250">
         <v>2019</v>
@@ -6858,12 +8178,12 @@
         <v>1.9230769200000001E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B251" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C251">
         <v>2021</v>
@@ -6874,10 +8194,10 @@
     </row>
     <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B252" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C252">
         <v>2022</v>
@@ -6888,10 +8208,10 @@
     </row>
     <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B253" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C253">
         <v>2023</v>
@@ -6902,10 +8222,10 @@
     </row>
     <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B254" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C254">
         <v>2024</v>
@@ -6916,10 +8236,10 @@
     </row>
     <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B255" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C255">
         <v>2012</v>
@@ -6930,10 +8250,10 @@
     </row>
     <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B256" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C256">
         <v>2013</v>
@@ -6942,12 +8262,12 @@
         <v>3.3502968600000002E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B257" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C257">
         <v>2014</v>
@@ -6958,10 +8278,10 @@
     </row>
     <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B258" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C258">
         <v>2015</v>
@@ -6972,10 +8292,10 @@
     </row>
     <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B259" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C259">
         <v>2016</v>
@@ -6986,10 +8306,10 @@
     </row>
     <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B260" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C260">
         <v>2017</v>
@@ -7000,10 +8320,10 @@
     </row>
     <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B261" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C261">
         <v>2018</v>
@@ -7014,10 +8334,10 @@
     </row>
     <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B262" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C262">
         <v>2019</v>
@@ -7026,12 +8346,12 @@
         <v>3.4965034999999998E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B263" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C263">
         <v>2021</v>
@@ -7042,10 +8362,10 @@
     </row>
     <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B264" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C264">
         <v>2022</v>
@@ -7056,10 +8376,10 @@
     </row>
     <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B265" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C265">
         <v>2023</v>
@@ -7070,10 +8390,10 @@
     </row>
     <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B266" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C266">
         <v>2024</v>
@@ -7084,10 +8404,10 @@
     </row>
     <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B267" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C267">
         <v>2012</v>
@@ -7098,10 +8418,10 @@
     </row>
     <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B268" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C268">
         <v>2013</v>
@@ -7110,12 +8430,12 @@
         <v>1.6963528E-3</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B269" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C269">
         <v>2014</v>
@@ -7126,10 +8446,10 @@
     </row>
     <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B270" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C270">
         <v>2015</v>
@@ -7140,10 +8460,10 @@
     </row>
     <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B271" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C271">
         <v>2016</v>
@@ -7154,10 +8474,10 @@
     </row>
     <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B272" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C272">
         <v>2017</v>
@@ -7168,10 +8488,10 @@
     </row>
     <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B273" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C273">
         <v>2018</v>
@@ -7182,10 +8502,10 @@
     </row>
     <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B274" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C274">
         <v>2019</v>
@@ -7194,12 +8514,12 @@
         <v>8.7412589999999999E-4</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B275" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C275">
         <v>2021</v>
@@ -7210,10 +8530,10 @@
     </row>
     <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B276" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C276">
         <v>2022</v>
@@ -7224,10 +8544,10 @@
     </row>
     <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B277" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C277">
         <v>2023</v>
@@ -7238,10 +8558,10 @@
     </row>
     <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B278" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C278">
         <v>2024</v>
@@ -7252,10 +8572,10 @@
     </row>
     <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B279" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C279">
         <v>2012</v>
@@ -7266,10 +8586,10 @@
     </row>
     <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B280" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C280">
         <v>2013</v>
@@ -7278,12 +8598,12 @@
         <v>1.2722645999999999E-3</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B281" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C281">
         <v>2014</v>
@@ -7294,10 +8614,10 @@
     </row>
     <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B282" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C282">
         <v>2015</v>
@@ -7308,10 +8628,10 @@
     </row>
     <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B283" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C283">
         <v>2016</v>
@@ -7322,10 +8642,10 @@
     </row>
     <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B284" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C284">
         <v>2017</v>
@@ -7336,10 +8656,10 @@
     </row>
     <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B285" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C285">
         <v>2018</v>
@@ -7350,10 +8670,10 @@
     </row>
     <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B286" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C286">
         <v>2019</v>
@@ -7362,12 +8682,12 @@
         <v>4.3706289999999998E-4</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B287" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C287">
         <v>2021</v>
@@ -7378,10 +8698,10 @@
     </row>
     <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B288" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C288">
         <v>2022</v>
@@ -7392,10 +8712,10 @@
     </row>
     <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B289" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C289">
         <v>2023</v>
@@ -7406,10 +8726,10 @@
     </row>
     <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B290" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C290">
         <v>2024</v>
@@ -7420,10 +8740,10 @@
     </row>
     <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B291" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C291">
         <v>2012</v>
@@ -7434,10 +8754,10 @@
     </row>
     <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B292" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C292">
         <v>2013</v>
@@ -7448,10 +8768,10 @@
     </row>
     <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B293" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C293">
         <v>2014</v>
@@ -7462,10 +8782,10 @@
     </row>
     <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B294" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C294">
         <v>2015</v>
@@ -7476,10 +8796,10 @@
     </row>
     <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B295" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C295">
         <v>2016</v>
@@ -7490,10 +8810,10 @@
     </row>
     <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B296" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C296">
         <v>2017</v>
@@ -7504,10 +8824,10 @@
     </row>
     <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B297" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C297">
         <v>2018</v>
@@ -7518,10 +8838,10 @@
     </row>
     <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B298" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C298">
         <v>2019</v>
@@ -7532,10 +8852,10 @@
     </row>
     <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B299" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C299">
         <v>2021</v>
@@ -7546,10 +8866,10 @@
     </row>
     <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B300" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C300">
         <v>2022</v>
@@ -7560,10 +8880,10 @@
     </row>
     <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B301" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C301">
         <v>2023</v>
@@ -7574,10 +8894,10 @@
     </row>
     <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B302" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C302">
         <v>2024</v>
@@ -7588,10 +8908,10 @@
     </row>
     <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B303" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C303">
         <v>2012</v>
@@ -7602,10 +8922,10 @@
     </row>
     <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B304" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C304">
         <v>2013</v>
@@ -7616,10 +8936,10 @@
     </row>
     <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B305" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C305">
         <v>2014</v>
@@ -7630,10 +8950,10 @@
     </row>
     <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B306" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C306">
         <v>2015</v>
@@ -7644,10 +8964,10 @@
     </row>
     <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B307" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C307">
         <v>2016</v>
@@ -7658,10 +8978,10 @@
     </row>
     <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B308" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C308">
         <v>2017</v>
@@ -7672,10 +8992,10 @@
     </row>
     <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B309" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C309">
         <v>2018</v>
@@ -7686,10 +9006,10 @@
     </row>
     <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B310" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C310">
         <v>2019</v>
@@ -7700,10 +9020,10 @@
     </row>
     <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B311" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C311">
         <v>2021</v>
@@ -7714,10 +9034,10 @@
     </row>
     <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B312" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C312">
         <v>2022</v>
@@ -7728,10 +9048,10 @@
     </row>
     <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B313" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C313">
         <v>2023</v>
@@ -7742,10 +9062,10 @@
     </row>
     <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B314" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C314">
         <v>2024</v>
@@ -7756,10 +9076,10 @@
     </row>
     <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B315" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C315">
         <v>2012</v>
@@ -7770,10 +9090,10 @@
     </row>
     <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B316" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C316">
         <v>2013</v>
@@ -7784,10 +9104,10 @@
     </row>
     <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B317" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C317">
         <v>2014</v>
@@ -7798,10 +9118,10 @@
     </row>
     <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B318" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C318">
         <v>2015</v>
@@ -7812,10 +9132,10 @@
     </row>
     <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B319" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C319">
         <v>2016</v>
@@ -7826,10 +9146,10 @@
     </row>
     <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B320" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C320">
         <v>2017</v>
@@ -7840,10 +9160,10 @@
     </row>
     <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B321" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C321">
         <v>2018</v>
@@ -7854,10 +9174,10 @@
     </row>
     <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B322" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C322">
         <v>2019</v>
@@ -7868,10 +9188,10 @@
     </row>
     <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B323" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C323">
         <v>2021</v>
@@ -7882,10 +9202,10 @@
     </row>
     <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B324" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C324">
         <v>2022</v>
@@ -7896,10 +9216,10 @@
     </row>
     <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B325" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C325">
         <v>2023</v>
@@ -7910,10 +9230,10 @@
     </row>
     <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B326" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C326">
         <v>2024</v>
@@ -7924,10 +9244,10 @@
     </row>
     <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B327" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C327">
         <v>2012</v>
@@ -7938,10 +9258,10 @@
     </row>
     <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B328" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C328">
         <v>2013</v>
@@ -7952,10 +9272,10 @@
     </row>
     <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B329" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C329">
         <v>2014</v>
@@ -7966,10 +9286,10 @@
     </row>
     <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B330" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C330">
         <v>2015</v>
@@ -7980,10 +9300,10 @@
     </row>
     <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B331" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C331">
         <v>2016</v>
@@ -7994,10 +9314,10 @@
     </row>
     <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B332" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C332">
         <v>2017</v>
@@ -8008,10 +9328,10 @@
     </row>
     <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B333" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C333">
         <v>2018</v>
@@ -8022,10 +9342,10 @@
     </row>
     <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B334" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C334">
         <v>2019</v>
@@ -8036,10 +9356,10 @@
     </row>
     <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B335" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C335">
         <v>2021</v>
@@ -8050,10 +9370,10 @@
     </row>
     <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B336" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C336">
         <v>2022</v>
@@ -8064,10 +9384,10 @@
     </row>
     <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B337" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C337">
         <v>2023</v>
@@ -8078,10 +9398,10 @@
     </row>
     <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B338" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C338">
         <v>2024</v>
@@ -8092,10 +9412,10 @@
     </row>
     <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B339" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C339">
         <v>2012</v>
@@ -8106,10 +9426,10 @@
     </row>
     <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B340" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C340">
         <v>2013</v>
@@ -8120,10 +9440,10 @@
     </row>
     <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B341" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C341">
         <v>2014</v>
@@ -8134,10 +9454,10 @@
     </row>
     <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B342" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C342">
         <v>2015</v>
@@ -8148,10 +9468,10 @@
     </row>
     <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B343" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C343">
         <v>2016</v>
@@ -8162,10 +9482,10 @@
     </row>
     <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B344" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C344">
         <v>2017</v>
@@ -8176,10 +9496,10 @@
     </row>
     <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B345" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C345">
         <v>2018</v>
@@ -8190,10 +9510,10 @@
     </row>
     <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B346" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C346">
         <v>2019</v>
@@ -8204,10 +9524,10 @@
     </row>
     <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B347" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C347">
         <v>2021</v>
@@ -8218,10 +9538,10 @@
     </row>
     <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B348" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C348">
         <v>2022</v>
@@ -8232,10 +9552,10 @@
     </row>
     <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B349" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C349">
         <v>2023</v>
@@ -8246,10 +9566,10 @@
     </row>
     <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B350" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C350">
         <v>2024</v>
@@ -8260,10 +9580,10 @@
     </row>
     <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B351" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C351">
         <v>2012</v>
@@ -8274,10 +9594,10 @@
     </row>
     <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B352" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C352">
         <v>2013</v>
@@ -8288,10 +9608,10 @@
     </row>
     <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B353" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C353">
         <v>2014</v>
@@ -8302,10 +9622,10 @@
     </row>
     <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B354" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C354">
         <v>2015</v>
@@ -8316,10 +9636,10 @@
     </row>
     <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B355" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C355">
         <v>2016</v>
@@ -8330,10 +9650,10 @@
     </row>
     <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B356" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C356">
         <v>2017</v>
@@ -8344,10 +9664,10 @@
     </row>
     <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B357" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C357">
         <v>2018</v>
@@ -8358,10 +9678,10 @@
     </row>
     <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B358" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C358">
         <v>2019</v>
@@ -8372,10 +9692,10 @@
     </row>
     <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B359" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C359">
         <v>2021</v>
@@ -8386,10 +9706,10 @@
     </row>
     <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B360" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C360">
         <v>2022</v>
@@ -8400,10 +9720,10 @@
     </row>
     <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B361" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C361">
         <v>2023</v>
@@ -8414,10 +9734,10 @@
     </row>
     <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B362" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C362">
         <v>2024</v>
@@ -8428,10 +9748,10 @@
     </row>
     <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B363" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C363">
         <v>2012</v>
@@ -8442,10 +9762,10 @@
     </row>
     <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B364" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C364">
         <v>2013</v>
@@ -8456,10 +9776,10 @@
     </row>
     <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B365" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C365">
         <v>2014</v>
@@ -8470,10 +9790,10 @@
     </row>
     <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B366" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C366">
         <v>2015</v>
@@ -8484,10 +9804,10 @@
     </row>
     <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B367" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C367">
         <v>2016</v>
@@ -8498,10 +9818,10 @@
     </row>
     <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B368" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C368">
         <v>2017</v>
@@ -8512,10 +9832,10 @@
     </row>
     <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B369" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C369">
         <v>2018</v>
@@ -8526,10 +9846,10 @@
     </row>
     <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B370" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C370">
         <v>2019</v>
@@ -8540,10 +9860,10 @@
     </row>
     <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B371" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C371">
         <v>2021</v>
@@ -8554,10 +9874,10 @@
     </row>
     <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B372" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C372">
         <v>2022</v>
@@ -8568,10 +9888,10 @@
     </row>
     <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B373" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C373">
         <v>2023</v>
@@ -8582,10 +9902,10 @@
     </row>
     <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B374" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C374">
         <v>2024</v>
@@ -8596,10 +9916,10 @@
     </row>
     <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B375" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C375">
         <v>2012</v>
@@ -8610,10 +9930,10 @@
     </row>
     <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B376" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C376">
         <v>2013</v>
@@ -8624,10 +9944,10 @@
     </row>
     <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B377" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C377">
         <v>2014</v>
@@ -8638,10 +9958,10 @@
     </row>
     <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B378" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C378">
         <v>2015</v>
@@ -8652,10 +9972,10 @@
     </row>
     <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B379" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C379">
         <v>2016</v>
@@ -8666,10 +9986,10 @@
     </row>
     <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B380" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C380">
         <v>2017</v>
@@ -8680,10 +10000,10 @@
     </row>
     <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B381" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C381">
         <v>2018</v>
@@ -8694,10 +10014,10 @@
     </row>
     <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B382" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C382">
         <v>2019</v>
@@ -8708,10 +10028,10 @@
     </row>
     <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B383" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C383">
         <v>2021</v>
@@ -8722,10 +10042,10 @@
     </row>
     <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B384" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C384">
         <v>2022</v>
@@ -8736,10 +10056,10 @@
     </row>
     <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B385" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C385">
         <v>2023</v>
@@ -8750,10 +10070,10 @@
     </row>
     <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B386" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C386">
         <v>2024</v>
@@ -8772,17 +10092,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687C8D1E-3FE8-304C-8269-709B8FAAC0E7}">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D1">
         <v>2023</v>
@@ -8797,13 +10117,13 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>2.2187708E-2</v>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>2.6293469E-2</v>
       </c>
       <c r="B2">
         <f>A2/$A$10</f>
-        <v>0.2277904328485946</v>
+        <v>0.29245283035656816</v>
       </c>
       <c r="D2">
         <v>0.46684005206874163</v>
@@ -8844,14 +10164,32 @@
       <c r="U2">
         <v>0.2277904328485946</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>6.8781894999999996E-3</v>
+      <c r="X2">
+        <v>0.2463054190356864</v>
+      </c>
+      <c r="Y2">
+        <v>0.26987951776745656</v>
+      </c>
+      <c r="Z2">
+        <v>0.29245283035656816</v>
+      </c>
+      <c r="AA2">
+        <v>0.29245283035656816</v>
+      </c>
+      <c r="AB2">
+        <v>0.29245283035656816</v>
+      </c>
+      <c r="AC2">
+        <v>0.29245283035656816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>9.7540287999999999E-3</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B9" si="0">A3/$A$10</f>
-        <v>7.0615034388394615E-2</v>
+        <v>0.10849056584886081</v>
       </c>
       <c r="D3">
         <v>1.3003901096452083E-3</v>
@@ -8892,14 +10230,32 @@
       <c r="U3">
         <v>7.0615034388394615E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>1.7750165999999999E-3</v>
+      <c r="X3">
+        <v>0.10344827601753016</v>
+      </c>
+      <c r="Y3">
+        <v>0.1060240966256316</v>
+      </c>
+      <c r="Z3">
+        <v>0.10849056584886081</v>
+      </c>
+      <c r="AA3">
+        <v>0.10849056584886081</v>
+      </c>
+      <c r="AB3">
+        <v>0.10849056584886081</v>
+      </c>
+      <c r="AC3">
+        <v>0.10849056584886081</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>0</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>1.8223234217226974E-2</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1.3003901096452083E-3</v>
@@ -8940,14 +10296,32 @@
       <c r="U4">
         <v>1.8223234217226974E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>2.2187708E-3</v>
+      <c r="X4">
+        <v>9.8522170319299187E-3</v>
+      </c>
+      <c r="Y4">
+        <v>4.8192767631365964E-3</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4.240882E-4</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>2.2779043284859458E-2</v>
+        <v>4.7169810271448917E-3</v>
       </c>
       <c r="D5">
         <v>1.3003901096452083E-3</v>
@@ -8988,14 +10362,32 @@
       <c r="U5">
         <v>2.2779043284859458E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>2.1078322600000001E-2</v>
+      <c r="X5">
+        <v>1.4778324984348083E-2</v>
+      </c>
+      <c r="Y5">
+        <v>9.638554645791263E-3</v>
+      </c>
+      <c r="Z5">
+        <v>4.7169810271448917E-3</v>
+      </c>
+      <c r="AA5">
+        <v>4.7169810271448917E-3</v>
+      </c>
+      <c r="AB5">
+        <v>4.7169810271448917E-3</v>
+      </c>
+      <c r="AC5">
+        <v>4.7169810271448917E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>1.69635284E-2</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>0.21640091120616486</v>
+        <v>0.18867924553485227</v>
       </c>
       <c r="D6">
         <v>0.52145643694445154</v>
@@ -9036,14 +10428,32 @@
       <c r="U6">
         <v>0.21640091120616486</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>4.0381628599999997E-2</v>
+      <c r="X6">
+        <v>0.21674876793989667</v>
+      </c>
+      <c r="Y6">
+        <v>0.20240963860547195</v>
+      </c>
+      <c r="Z6">
+        <v>0.18867924553485227</v>
+      </c>
+      <c r="AA6">
+        <v>0.18867924553485227</v>
+      </c>
+      <c r="AB6">
+        <v>0.18867924553485227</v>
+      </c>
+      <c r="AC6">
+        <v>0.18867924553485227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3.3502968600000002E-2</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>0.41457858819510268</v>
+        <v>0.37264151004255969</v>
       </c>
       <c r="D7">
         <v>7.8023406578712493E-3</v>
@@ -9084,14 +10494,32 @@
       <c r="U7">
         <v>0.41457858819510268</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>1.9968936999999998E-3</v>
+      <c r="X7">
+        <v>0.3940886700062608</v>
+      </c>
+      <c r="Y7">
+        <v>0.38313252953779309</v>
+      </c>
+      <c r="Z7">
+        <v>0.37264151004255969</v>
+      </c>
+      <c r="AA7">
+        <v>0.37264151004255969</v>
+      </c>
+      <c r="AB7">
+        <v>0.37264151004255969</v>
+      </c>
+      <c r="AC7">
+        <v>0.37264151004255969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>1.6963528E-3</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>2.0501138751043216E-2</v>
+        <v>1.8867924108579567E-2</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -9132,14 +10560,32 @@
       <c r="U8">
         <v>2.0501138751043216E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>8.8750829999999995E-4</v>
+      <c r="X8">
+        <v>9.8522170319299187E-3</v>
+      </c>
+      <c r="Y8">
+        <v>1.4457831408927858E-2</v>
+      </c>
+      <c r="Z8">
+        <v>1.8867924108579567E-2</v>
+      </c>
+      <c r="AA8">
+        <v>1.8867924108579567E-2</v>
+      </c>
+      <c r="AB8">
+        <v>1.8867924108579567E-2</v>
+      </c>
+      <c r="AC8">
+        <v>1.8867924108579567E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>1.2722645999999999E-3</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>9.1116171086134869E-3</v>
+        <v>1.4150943081434672E-2</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -9180,29 +10626,47 @@
       <c r="U9">
         <v>9.1116171086134869E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="X9">
+        <v>4.9261079524181616E-3</v>
+      </c>
+      <c r="Y9">
+        <v>9.638554645791263E-3</v>
+      </c>
+      <c r="Z9">
+        <v>1.4150943081434672E-2</v>
+      </c>
+      <c r="AA9">
+        <v>1.4150943081434672E-2</v>
+      </c>
+      <c r="AB9">
+        <v>1.4150943081434672E-2</v>
+      </c>
+      <c r="AC9">
+        <v>1.4150943081434672E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>SUM(A2:A9)</f>
-        <v>9.7404038100000007E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+        <v>8.9906700399999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="1">
         <v>113</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1">
         <v>217</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2">
         <v>2020</v>
@@ -9211,22 +10675,22 @@
         <v>2.2187708E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="C15" s="1">
         <v>126</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E15" s="1">
         <v>230</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H15" s="2">
         <v>2020</v>
@@ -9235,23 +10699,23 @@
         <v>6.8781894999999996E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
         <v>139</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1">
         <v>243</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H16" s="2">
         <v>2020</v>
@@ -9267,16 +10731,16 @@
         <v>152</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1">
         <v>256</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H17" s="2">
         <v>2020</v>
@@ -9292,16 +10756,16 @@
         <v>165</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E18" s="1">
         <v>269</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H18" s="2">
         <v>2020</v>
@@ -9317,16 +10781,16 @@
         <v>178</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E19" s="1">
         <v>282</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H19" s="2">
         <v>2020</v>
@@ -9342,16 +10806,16 @@
         <v>191</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E20" s="1">
         <v>295</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H20" s="2">
         <v>2020</v>
@@ -9367,16 +10831,16 @@
         <v>204</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E21" s="1">
         <v>308</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H21" s="2">
         <v>2020</v>
@@ -9400,4 +10864,937 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8013298E-545D-4141-A0CD-320FAE66320A}">
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E1" s="2">
+        <v>0.20568278200000001</v>
+      </c>
+      <c r="F1">
+        <f>E1/$E$25</f>
+        <v>0.22600186391395383</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="N1">
+        <v>0.24556354923424994</v>
+      </c>
+      <c r="O1">
+        <v>0.23564169235017687</v>
+      </c>
+      <c r="P1">
+        <v>0.22600186391395383</v>
+      </c>
+      <c r="Q1">
+        <v>0.22600186391395383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F24" si="0">E2/$E$25</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="N3">
+        <v>4.7961626637572235E-4</v>
+      </c>
+      <c r="O3">
+        <v>2.363507278428048E-4</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4.240882E-4</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>4.6598321323713731E-4</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="N4">
+        <v>9.5923264248765571E-4</v>
+      </c>
+      <c r="O4">
+        <v>7.0905218352841431E-4</v>
+      </c>
+      <c r="P4">
+        <v>4.6598321323713731E-4</v>
+      </c>
+      <c r="Q4">
+        <v>4.6598321323713731E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>56</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.18744698900000001</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.20596458530524156</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="N5">
+        <v>0.21438848928615892</v>
+      </c>
+      <c r="O5">
+        <v>0.21011581187640849</v>
+      </c>
+      <c r="P5">
+        <v>0.20596458530524156</v>
+      </c>
+      <c r="Q5">
+        <v>0.20596458530524156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>69</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7.2094995999999996E-3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>7.9217148447890233E-3</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="N6">
+        <v>8.1534771868045468E-3</v>
+      </c>
+      <c r="O6">
+        <v>8.0359252956981424E-3</v>
+      </c>
+      <c r="P6">
+        <v>7.9217148447890233E-3</v>
+      </c>
+      <c r="Q6">
+        <v>7.9217148447890233E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>82</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>95</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>108</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4.1560644600000002E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>4.5666355996027905E-2</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="N9">
+        <v>1.1510791380643237E-2</v>
+      </c>
+      <c r="O9">
+        <v>2.8834790883184743E-2</v>
+      </c>
+      <c r="P9">
+        <v>4.5666355996027905E-2</v>
+      </c>
+      <c r="Q9">
+        <v>4.5666355996027905E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>121</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.1543681086</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.16961789379371409</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="N10">
+        <v>0.15875299766791806</v>
+      </c>
+      <c r="O10">
+        <v>0.16426376749045626</v>
+      </c>
+      <c r="P10">
+        <v>0.16961789379371409</v>
+      </c>
+      <c r="Q10">
+        <v>0.16961789379371409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>134</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E11" s="2">
+        <v>8.0576759999999997E-3</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>8.8536812712632987E-3</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="N11">
+        <v>2.4940047936525572E-2</v>
+      </c>
+      <c r="O11">
+        <v>1.6780902884733256E-2</v>
+      </c>
+      <c r="P11">
+        <v>8.8536812712632987E-3</v>
+      </c>
+      <c r="Q11">
+        <v>8.8536812712632987E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>147</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4.3681085699999997E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>4.799627217209243E-2</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="N12">
+        <v>5.179856115802646E-2</v>
+      </c>
+      <c r="O12">
+        <v>4.9870007088705592E-2</v>
+      </c>
+      <c r="P12">
+        <v>4.799627217209243E-2</v>
+      </c>
+      <c r="Q12">
+        <v>4.799627217209243E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>160</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.31467345E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1.4445479939987791E-2</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="N13">
+        <v>2.1103117476311162E-2</v>
+      </c>
+      <c r="O13">
+        <v>1.7726305796104475E-2</v>
+      </c>
+      <c r="P13">
+        <v>1.4445479939987791E-2</v>
+      </c>
+      <c r="Q13">
+        <v>1.4445479939987791E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>173</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E14" s="2">
+        <v>5.6403731999999998E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>6.1975768898843084E-2</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="N14">
+        <v>4.7961630697812049E-2</v>
+      </c>
+      <c r="O14">
+        <v>5.506972343067297E-2</v>
+      </c>
+      <c r="P14">
+        <v>6.1975768898843084E-2</v>
+      </c>
+      <c r="Q14">
+        <v>6.1975768898843084E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>186</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E15" s="2">
+        <v>8.4817639999999999E-4</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>9.3196642647427462E-4</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="N15">
+        <v>2.3980815513510341E-3</v>
+      </c>
+      <c r="O15">
+        <v>1.6544552047081894E-3</v>
+      </c>
+      <c r="P15">
+        <v>9.3196642647427462E-4</v>
+      </c>
+      <c r="Q15">
+        <v>9.3196642647427462E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>199</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3.8167939000000001E-3</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>4.1938490290130805E-3</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="N16">
+        <v>1.4388489088633782E-3</v>
+      </c>
+      <c r="O16">
+        <v>2.8362089537307691E-3</v>
+      </c>
+      <c r="P16">
+        <v>4.1938490290130805E-3</v>
+      </c>
+      <c r="Q16">
+        <v>4.1938490290130805E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>212</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.1026293499999999E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1.2115563873802103E-2</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="N17">
+        <v>1.8225419658584405E-2</v>
+      </c>
+      <c r="O17">
+        <v>1.5126447680025065E-2</v>
+      </c>
+      <c r="P17">
+        <v>1.2115563873802103E-2</v>
+      </c>
+      <c r="Q17">
+        <v>1.2115563873802103E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>225</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4.240882E-4</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>4.6598321323713731E-4</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="N18">
+        <v>4.7961626637572235E-4</v>
+      </c>
+      <c r="O18">
+        <v>4.7270145568560959E-4</v>
+      </c>
+      <c r="P18">
+        <v>4.6598321323713731E-4</v>
+      </c>
+      <c r="Q18">
+        <v>4.6598321323713731E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>238</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E19" s="2">
+        <v>8.4817639999999999E-4</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>9.3196642647427462E-4</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="N19">
+        <v>1.9184651752391004E-3</v>
+      </c>
+      <c r="O19">
+        <v>1.4181044768653845E-3</v>
+      </c>
+      <c r="P19">
+        <v>9.3196642647427462E-4</v>
+      </c>
+      <c r="Q19">
+        <v>9.3196642647427462E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>251</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5.0890585000000002E-3</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>5.5917986687244927E-3</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="N20">
+        <v>1.9184651752391004E-3</v>
+      </c>
+      <c r="O20">
+        <v>3.7816118651019881E-3</v>
+      </c>
+      <c r="P20">
+        <v>5.5917986687244927E-3</v>
+      </c>
+      <c r="Q20">
+        <v>5.5917986687244927E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>264</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E21" s="2">
+        <v>7.1670907500000006E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>7.8751164905016574E-2</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="N21">
+        <v>8.3932853748605138E-2</v>
+      </c>
+      <c r="O21">
+        <v>8.1304656087969759E-2</v>
+      </c>
+      <c r="P21">
+        <v>7.8751164905016574E-2</v>
+      </c>
+      <c r="Q21">
+        <v>7.8751164905016574E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>277</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E22" s="2">
+        <v>6.8702290099999994E-2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>7.5489282412356598E-2</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="N22">
+        <v>7.7697841737039683E-2</v>
+      </c>
+      <c r="O22">
+        <v>7.6577641201687988E-2</v>
+      </c>
+      <c r="P22">
+        <v>7.5489282412356598E-2</v>
+      </c>
+      <c r="Q22">
+        <v>7.5489282412356598E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>290</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.4173027999999999E-2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>2.6561043813789893E-2</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="N23">
+        <v>2.446043167014985E-2</v>
+      </c>
+      <c r="O23">
+        <v>2.5525880363959811E-2</v>
+      </c>
+      <c r="P23">
+        <v>2.6561043813789893E-2</v>
+      </c>
+      <c r="Q23">
+        <v>2.6561043813789893E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>303</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5.5131466999999998E-3</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>6.0577818819616295E-3</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="N24">
+        <v>1.9184651752391004E-3</v>
+      </c>
+      <c r="O24">
+        <v>4.0179627027533494E-3</v>
+      </c>
+      <c r="P24">
+        <v>6.0577818819616295E-3</v>
+      </c>
+      <c r="Q24">
+        <v>6.0577818819616295E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <f>SUM(E1:E24)</f>
+        <v>0.91009329939999983</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>